--- a/private/concerts/2023_10_21_Torres_Vedras.xlsx
+++ b/private/concerts/2023_10_21_Torres_Vedras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ls\private\concerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F68501C-397B-4AA9-9859-3C02A48DE927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91C0611-C928-47E5-9FB0-88AA8C8BE263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Riky" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Raga</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Drut Teentaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumental sections only. Flutter tonguing d S R d Rrrrrrrrrr and other semibreve </t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>##</t>
   </si>
 </sst>
 </file>
@@ -252,13 +261,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -266,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -274,6 +282,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,184 +603,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D141216C-1871-42DC-A9B1-6034DBF6EF55}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="10"/>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10"/>
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8" t="s">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/private/concerts/2023_10_21_Torres_Vedras.xlsx
+++ b/private/concerts/2023_10_21_Torres_Vedras.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ls\private\concerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91C0611-C928-47E5-9FB0-88AA8C8BE263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBA3A1-362E-4B19-9255-62353FED9B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
+    <workbookView xWindow="19480" yWindow="0" windowWidth="18920" windowHeight="21000" activeTab="2" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
   </bookViews>
   <sheets>
-    <sheet name="Riky" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="01 Bhupali" sheetId="2" r:id="rId2"/>
+    <sheet name="02 Puriya Daneshree" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Raga</t>
   </si>
@@ -110,20 +112,83 @@
     <t>Drut Teentaal</t>
   </si>
   <si>
-    <t xml:space="preserve">Instrumental sections only. Flutter tonguing d S R d Rrrrrrrrrr and other semibreve </t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>##</t>
+    <t>Aucchar S -&gt; Elsa G</t>
+  </si>
+  <si>
+    <t>Elsa P R G</t>
+  </si>
+  <si>
+    <t>GD, PRG, GDPG, DPGP</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Elsa</t>
+  </si>
+  <si>
+    <t>Riky</t>
+  </si>
+  <si>
+    <t>Below S</t>
+  </si>
+  <si>
+    <t>Establish High Sa</t>
+  </si>
+  <si>
+    <t>Jor but not Jhalla</t>
+  </si>
+  <si>
+    <t>Slow alap like improv</t>
+  </si>
+  <si>
+    <t>More metered improv but not double time</t>
+  </si>
+  <si>
+    <t>Emphasise R - P</t>
+  </si>
+  <si>
+    <t>Instrumental sections only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flutter tonguing d S R d Rrrrrrrrrr and other semibreve </t>
+  </si>
+  <si>
+    <t>Back down to Main Sa</t>
+  </si>
+  <si>
+    <t>Member(s)</t>
+  </si>
+  <si>
+    <r>
+      <t>Stephen/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riky</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0#"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +204,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +222,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,15 +339,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,12 +359,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,271 +682,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D141216C-1871-42DC-A9B1-6034DBF6EF55}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1BBA16-EFF6-48AB-8DCC-278FFE53BB34}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="47.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C0B82D-9FD1-4FE7-9F73-E1FCF3D43A0C}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="10"/>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10"/>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="7" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="10"/>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/private/concerts/2023_10_21_Torres_Vedras.xlsx
+++ b/private/concerts/2023_10_21_Torres_Vedras.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ls\private\concerts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ls\private\concerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBA3A1-362E-4B19-9255-62353FED9B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFC527-7C2E-42E1-9230-8A85FA52A427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19480" yWindow="0" windowWidth="18920" windowHeight="21000" activeTab="2" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="01 Bhupali" sheetId="2" r:id="rId2"/>
     <sheet name="02 Puriya Daneshree" sheetId="4" r:id="rId3"/>
+    <sheet name="03 Gorakh" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Raga</t>
   </si>
@@ -188,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +199,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -339,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -359,15 +353,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,14 +681,14 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
@@ -710,8 +702,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -724,32 +716,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
       <c r="B3" s="3"/>
       <c r="C3" s="8"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
       <c r="B4" s="3"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="13"/>
       <c r="B5" s="5"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -762,16 +754,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9"/>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -784,16 +776,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="9"/>
       <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -806,16 +798,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="11">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -828,24 +820,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
       <c r="B14" s="5"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="11">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -858,16 +850,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="13"/>
       <c r="B17" s="5"/>
       <c r="C17" s="9"/>
       <c r="D17" s="6" t="s">
@@ -887,15 +879,15 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="47.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="47.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -909,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -923,7 +915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="C3" t="s">
         <v>29</v>
@@ -932,7 +924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="C4" t="s">
         <v>30</v>
@@ -941,85 +933,74 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>39</v>
       </c>
@@ -1033,18 +1014,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C0B82D-9FD1-4FE7-9F73-E1FCF3D43A0C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1058,17 +1039,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4458D58C-AA6A-46C4-B46E-8673DD825872}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/private/concerts/2023_10_21_Torres_Vedras.xlsx
+++ b/private/concerts/2023_10_21_Torres_Vedras.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ls\private\concerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DFC527-7C2E-42E1-9230-8A85FA52A427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDE8B3F-F67C-45FF-BBD7-B5900D8A1A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="01 Bhupali" sheetId="2" r:id="rId2"/>
     <sheet name="02 Puriya Daneshree" sheetId="4" r:id="rId3"/>
     <sheet name="03 Gorakh" sheetId="5" r:id="rId4"/>
+    <sheet name="04 Bihag" sheetId="6" r:id="rId5"/>
+    <sheet name="05 Jog" sheetId="7" r:id="rId6"/>
+    <sheet name="06 Bhairavi" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Raga</t>
   </si>
@@ -156,9 +159,6 @@
   </si>
   <si>
     <t>Instrumental sections only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flutter tonguing d S R d Rrrrrrrrrr and other semibreve </t>
   </si>
   <si>
     <t>Back down to Main Sa</t>
@@ -180,6 +180,33 @@
       </rPr>
       <t>Riky</t>
     </r>
+  </si>
+  <si>
+    <t>Finish on Pa, R -&gt; N omitting P until end</t>
+  </si>
+  <si>
+    <t>GMRG</t>
+  </si>
+  <si>
+    <t>Antara - each line x2 except</t>
+  </si>
+  <si>
+    <t>Last half line 3x</t>
+  </si>
+  <si>
+    <t>Astayi - improv - what style of tana?</t>
+  </si>
+  <si>
+    <t>Same format as before</t>
+  </si>
+  <si>
+    <t>Flutter tonguing</t>
+  </si>
+  <si>
+    <t>d S G d Rrrr</t>
+  </si>
+  <si>
+    <t>g p S p g dddd</t>
   </si>
 </sst>
 </file>
@@ -206,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -333,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -360,6 +393,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +712,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D7"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -873,10 +907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1BBA16-EFF6-48AB-8DCC-278FFE53BB34}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -895,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
@@ -956,12 +990,12 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1002,7 +1036,17 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1012,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C0B82D-9FD1-4FE7-9F73-E1FCF3D43A0C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1023,6 +1067,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -1033,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
@@ -1046,13 +1091,37 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>11</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4458D58C-AA6A-46C4-B46E-8673DD825872}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1078,4 +1147,137 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6A175-56E6-4076-BACE-5AC9872042B9}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E59F7CF-803B-4B49-82F3-F7FB9B56C38D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2956D330-687C-4C56-9DB7-801FDCA3959F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/private/concerts/2023_10_21_Torres_Vedras.xlsx
+++ b/private/concerts/2023_10_21_Torres_Vedras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ls\private\concerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDE8B3F-F67C-45FF-BBD7-B5900D8A1A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB2BC0-1C9F-44E7-B153-64DBE29723B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>Raga</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Astayi - improv - what style of tana?</t>
   </si>
   <si>
-    <t>Same format as before</t>
-  </si>
-  <si>
     <t>Flutter tonguing</t>
   </si>
   <si>
@@ -207,6 +204,12 @@
   </si>
   <si>
     <t>g p S p g dddd</t>
+  </si>
+  <si>
+    <t>Previous format</t>
+  </si>
+  <si>
+    <t>Previous Format</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1BBA16-EFF6-48AB-8DCC-278FFE53BB34}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1036,17 +1039,17 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1131,30 +1134,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4458D58C-AA6A-46C4-B46E-8673DD825872}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6A175-56E6-4076-BACE-5AC9872042B9}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1178,6 +1161,50 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6A175-56E6-4076-BACE-5AC9872042B9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1185,15 +1212,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E59F7CF-803B-4B49-82F3-F7FB9B56C38D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -1213,6 +1242,28 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1276,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1258,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1266,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1274,7 +1325,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/private/concerts/2023_10_21_Torres_Vedras.xlsx
+++ b/private/concerts/2023_10_21_Torres_Vedras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ls\private\concerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB2BC0-1C9F-44E7-B153-64DBE29723B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE2485-ADEC-4899-B2D4-BF3ACD61731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11033" windowHeight="12863" firstSheet="3" activeTab="3" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
   <si>
     <t>Raga</t>
   </si>
@@ -211,6 +211,298 @@
   <si>
     <t>Previous Format</t>
   </si>
+  <si>
+    <t>- - - -</t>
+  </si>
+  <si>
+    <t>r ---</t>
+  </si>
+  <si>
+    <t>g r s, r</t>
+  </si>
+  <si>
+    <t>g d p S'</t>
+  </si>
+  <si>
+    <t>p---</t>
+  </si>
+  <si>
+    <t>r g- s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s, </t>
+    </r>
+  </si>
+  <si>
+    <t>- - - R</t>
+  </si>
+  <si>
+    <t>d g p-</t>
+  </si>
+  <si>
+    <t>g r g [sr]</t>
+  </si>
+  <si>
+    <t>Antara</t>
+  </si>
+  <si>
+    <t>Astayi</t>
+  </si>
+  <si>
+    <t>- g p g</t>
+  </si>
+  <si>
+    <t>p- s' d</t>
+  </si>
+  <si>
+    <t>s'--- [dr']</t>
+  </si>
+  <si>
+    <t>s'--- d</t>
+  </si>
+  <si>
+    <t>s' d s' d</t>
+  </si>
+  <si>
+    <t>s' d p g</t>
+  </si>
+  <si>
+    <t>d p g r</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> r s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>r- s</t>
+  </si>
+  <si>
+    <t>g r</t>
+  </si>
+  <si>
+    <t>p- r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g- </t>
+  </si>
+  <si>
+    <t>[rg] [pd] [s's']</t>
+  </si>
+  <si>
+    <t>[pp] g. -r</t>
+  </si>
+  <si>
+    <t>d-</t>
+  </si>
+  <si>
+    <t>g p</t>
+  </si>
+  <si>
+    <t>d p d</t>
+  </si>
+  <si>
+    <t>s'-</t>
+  </si>
+  <si>
+    <t>[dr'] s'-</t>
+  </si>
+  <si>
+    <t>d s'-</t>
+  </si>
+  <si>
+    <t>[ps'] d-</t>
+  </si>
+  <si>
+    <t>[gd] p-</t>
+  </si>
+  <si>
+    <t>-p [rp]</t>
+  </si>
+  <si>
+    <t>p g r</t>
+  </si>
+  <si>
+    <t>s's' [dp] d</t>
+  </si>
+  <si>
+    <t>s' s' p d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- - - - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - - - -</t>
+  </si>
+  <si>
+    <t>s' s' - - :|</t>
+  </si>
+  <si>
+    <t>Notation</t>
+  </si>
+  <si>
+    <t>r'--- :|</t>
+  </si>
+  <si>
+    <t>'d s g 'd</t>
+  </si>
+  <si>
+    <t>g p s g</t>
+  </si>
+  <si>
+    <t>d--- :!</t>
+  </si>
+  <si>
+    <t>[\ds] [rg] r s</t>
+  </si>
+  <si>
+    <t>\d s \d-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[\d\p] [\d\p] \g \r </t>
+  </si>
+  <si>
+    <t>\p- \g-</t>
+  </si>
+  <si>
+    <t>\s- s-</t>
+  </si>
+  <si>
+    <t>p - - -</t>
+  </si>
+  <si>
+    <t>¬ [[sgpd] [[pgpd] [[pgpd] [[pg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -[ds] [gs] p</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Papagaio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - - -</t>
+  </si>
+  <si>
+    <t>s r</t>
+  </si>
+  <si>
+    <t>m d n</t>
+  </si>
+  <si>
+    <t>d* [p]</t>
+  </si>
+  <si>
+    <t>[m{g}m] r* [s]</t>
+  </si>
+  <si>
+    <t>m* [r]</t>
+  </si>
+  <si>
+    <t>[s{n}s] n* [\d]</t>
+  </si>
+  <si>
+    <t>s* r*</t>
+  </si>
+  <si>
+    <t>m d</t>
+  </si>
+  <si>
+    <t>{s}[nd] s' s'</t>
+  </si>
+  <si>
+    <t>s'* [r']</t>
+  </si>
+  <si>
+    <t>n- d</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +521,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -262,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -365,11 +673,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -397,6 +716,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1BBA16-EFF6-48AB-8DCC-278FFE53BB34}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView topLeftCell="C5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -921,10 +1246,13 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="4" width="47.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -937,8 +1265,11 @@
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -952,7 +1283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="C3" t="s">
         <v>29</v>
@@ -961,7 +1292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="C4" t="s">
         <v>30</v>
@@ -970,7 +1301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
@@ -978,17 +1309,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -996,7 +1327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C9" s="15" t="s">
         <v>41</v>
       </c>
@@ -1004,7 +1335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -1014,46 +1345,302 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+      <c r="E11" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E15" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E18" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+      <c r="E21" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E24" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D30" s="20"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D16" t="s">
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
+      <c r="E33" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="E35" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="E36" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="E39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1134,10 +1721,127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4458D58C-AA6A-46C4-B46E-8673DD825872}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E9" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6A175-56E6-4076-BACE-5AC9872042B9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1165,44 +1869,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6A175-56E6-4076-BACE-5AC9872042B9}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/private/concerts/2023_10_21_Torres_Vedras.xlsx
+++ b/private/concerts/2023_10_21_Torres_Vedras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ls\private\concerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE2485-ADEC-4899-B2D4-BF3ACD61731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06760241-C30D-4ED3-8A96-F2559C9F5352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11033" windowHeight="12863" firstSheet="3" activeTab="3" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{EB7BD927-28D7-4455-B242-0E33A62D5E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="06 Bhairavi" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,9 +391,6 @@
     <t>[dr'] s'-</t>
   </si>
   <si>
-    <t>d s'-</t>
-  </si>
-  <si>
     <t>[ps'] d-</t>
   </si>
   <si>
@@ -502,6 +500,9 @@
   </si>
   <si>
     <t>n- d</t>
+  </si>
+  <si>
+    <t>p s'-</t>
   </si>
 </sst>
 </file>
@@ -1237,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1BBA16-EFF6-48AB-8DCC-278FFE53BB34}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1266,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1351,10 +1352,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>59</v>
@@ -1500,7 +1501,7 @@
         <v>83</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
@@ -1519,16 +1520,16 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="G27" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="H27" t="s">
         <v>88</v>
-      </c>
-      <c r="H27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
@@ -1546,16 +1547,16 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
         <v>90</v>
       </c>
-      <c r="F31" t="s">
-        <v>91</v>
-      </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
@@ -1568,16 +1569,16 @@
         <v>48</v>
       </c>
       <c r="E33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" t="s">
         <v>97</v>
       </c>
-      <c r="F33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>98</v>
-      </c>
-      <c r="H33" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.45">
@@ -1587,55 +1588,55 @@
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E35" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
         <v>100</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>101</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>102</v>
-      </c>
-      <c r="H35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E36" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
         <v>100</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>101</v>
       </c>
-      <c r="G36" t="s">
-        <v>102</v>
-      </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4458D58C-AA6A-46C4-B46E-8673DD825872}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1751,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1765,12 +1766,12 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>63</v>
@@ -1778,38 +1779,38 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
         <v>110</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>112</v>
-      </c>
-      <c r="H5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
         <v>114</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>115</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>116</v>
-      </c>
-      <c r="H6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1819,16 +1820,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" t="s">
         <v>119</v>
-      </c>
-      <c r="F10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
